--- a/DataTables/Datas/reward.xlsx
+++ b/DataTables/Datas/reward.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\LubanTest\Luban\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72D66A6-0921-4497-8A30-AB73BEC7EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C73FC47-FF90-48B6-BEA1-C44E5CCE8480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18795" yWindow="3660" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2445" windowWidth="22935" windowHeight="13545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EndReward" sheetId="1" r:id="rId1"/>
+    <sheet name="StartReward" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +101,10 @@
   </si>
   <si>
     <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,4 +535,113 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E4048F-3EE7-4341-B017-50CDB9C8A067}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>